--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2043.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2043.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155607624294625</v>
+        <v>1.275959610939026</v>
       </c>
       <c r="B1">
-        <v>2.511701457543976</v>
+        <v>1.923154950141907</v>
       </c>
       <c r="C1">
-        <v>5.895771088428047</v>
+        <v>5.59109354019165</v>
       </c>
       <c r="D1">
-        <v>2.406874712216892</v>
+        <v>1.933579325675964</v>
       </c>
       <c r="E1">
-        <v>1.214010737697235</v>
+        <v>1.113146185874939</v>
       </c>
     </row>
   </sheetData>
